--- a/Code/Results/Cases/Case_7_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_15/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9818423528737478</v>
+        <v>0.9818423528737477</v>
       </c>
       <c r="D2">
         <v>1.002634798735584</v>
@@ -436,13 +436,13 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0349119938543</v>
+        <v>1.034911993854299</v>
       </c>
       <c r="J2">
         <v>1.00458005960998</v>
       </c>
       <c r="K2">
-        <v>1.014057548269788</v>
+        <v>1.014057548269787</v>
       </c>
       <c r="L2">
         <v>1.001623210453606</v>
@@ -462,16 +462,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9903543119095849</v>
+        <v>0.9903543119095845</v>
       </c>
       <c r="D3">
         <v>1.009084801065144</v>
       </c>
       <c r="E3">
-        <v>0.9971546352854425</v>
+        <v>0.997154635285442</v>
       </c>
       <c r="F3">
-        <v>0.9991688109566026</v>
+        <v>0.9991688109566024</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,16 +480,16 @@
         <v>1.037451054362247</v>
       </c>
       <c r="J3">
-        <v>1.011111427143979</v>
+        <v>1.011111427143978</v>
       </c>
       <c r="K3">
-        <v>1.01960274499531</v>
+        <v>1.019602744995309</v>
       </c>
       <c r="L3">
-        <v>1.007824053013672</v>
+        <v>1.007824053013671</v>
       </c>
       <c r="M3">
-        <v>1.009812338060873</v>
+        <v>1.009812338060872</v>
       </c>
       <c r="N3">
         <v>1.012547321346624</v>
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9956727879934052</v>
+        <v>0.9956727879934081</v>
       </c>
       <c r="D4">
-        <v>1.013117195721875</v>
+        <v>1.013117195721877</v>
       </c>
       <c r="E4">
-        <v>1.001617123749363</v>
+        <v>1.001617123749365</v>
       </c>
       <c r="F4">
-        <v>1.004547451613994</v>
+        <v>1.004547451613997</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039023531224087</v>
+        <v>1.039023531224089</v>
       </c>
       <c r="J4">
-        <v>1.015187835762059</v>
+        <v>1.015187835762062</v>
       </c>
       <c r="K4">
-        <v>1.023059844137662</v>
+        <v>1.023059844137664</v>
       </c>
       <c r="L4">
-        <v>1.011696070617234</v>
+        <v>1.011696070617236</v>
       </c>
       <c r="M4">
-        <v>1.014591300999772</v>
+        <v>1.014591300999775</v>
       </c>
       <c r="N4">
-        <v>1.016629518932513</v>
+        <v>1.016629518932516</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9978662826970178</v>
+        <v>0.9978662826970199</v>
       </c>
       <c r="D5">
-        <v>1.014780664724189</v>
+        <v>1.014780664724191</v>
       </c>
       <c r="E5">
-        <v>1.003459025857883</v>
+        <v>1.003459025857885</v>
       </c>
       <c r="F5">
-        <v>1.006766926457942</v>
+        <v>1.006766926457944</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039668629709155</v>
+        <v>1.039668629709156</v>
       </c>
       <c r="J5">
-        <v>1.016867889974384</v>
+        <v>1.016867889974386</v>
       </c>
       <c r="K5">
-        <v>1.024483702761887</v>
+        <v>1.024483702761889</v>
       </c>
       <c r="L5">
-        <v>1.013292324877392</v>
+        <v>1.013292324877394</v>
       </c>
       <c r="M5">
-        <v>1.01656179216601</v>
+        <v>1.016561792166012</v>
       </c>
       <c r="N5">
-        <v>1.018311959014524</v>
+        <v>1.018311959014527</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,10 +585,10 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.99823217405813</v>
+        <v>0.9982321740581291</v>
       </c>
       <c r="D6">
-        <v>1.01505816260052</v>
+        <v>1.015058162600519</v>
       </c>
       <c r="E6">
         <v>1.003766350245385</v>
@@ -600,22 +600,22 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039776032545381</v>
+        <v>1.03977603254538</v>
       </c>
       <c r="J6">
-        <v>1.017148064110001</v>
+        <v>1.01714806411</v>
       </c>
       <c r="K6">
         <v>1.024721095327289</v>
       </c>
       <c r="L6">
-        <v>1.013558549401764</v>
+        <v>1.013558549401763</v>
       </c>
       <c r="M6">
-        <v>1.016890454475252</v>
+        <v>1.016890454475251</v>
       </c>
       <c r="N6">
-        <v>1.018592531029551</v>
+        <v>1.01859253102955</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9957022604906383</v>
+        <v>0.9957022604906395</v>
       </c>
       <c r="D7">
-        <v>1.013139545267574</v>
+        <v>1.013139545267575</v>
       </c>
       <c r="E7">
-        <v>1.001641866584807</v>
+        <v>1.001641866584808</v>
       </c>
       <c r="F7">
-        <v>1.004577268613293</v>
+        <v>1.004577268613294</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039032212692873</v>
+        <v>1.039032212692874</v>
       </c>
       <c r="J7">
-        <v>1.015210414273416</v>
+        <v>1.015210414273417</v>
       </c>
       <c r="K7">
         <v>1.023078983421583</v>
       </c>
       <c r="L7">
-        <v>1.01171752121455</v>
+        <v>1.011717521214551</v>
       </c>
       <c r="M7">
-        <v>1.014617779166323</v>
+        <v>1.014617779166324</v>
       </c>
       <c r="N7">
-        <v>1.016652129507946</v>
+        <v>1.016652129507947</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,28 +667,28 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9847600742757089</v>
+        <v>0.9847600742757087</v>
       </c>
       <c r="D8">
         <v>1.004845142053863</v>
       </c>
       <c r="E8">
-        <v>0.9924661796260283</v>
+        <v>0.992466179626028</v>
       </c>
       <c r="F8">
-        <v>0.9935154782779015</v>
+        <v>0.9935154782779014</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035785241675608</v>
+        <v>1.035785241675607</v>
       </c>
       <c r="J8">
         <v>1.006819783823221</v>
       </c>
       <c r="K8">
-        <v>1.015959880369554</v>
+        <v>1.015959880369553</v>
       </c>
       <c r="L8">
         <v>1.003749177728186</v>
@@ -708,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.963878709988809</v>
+        <v>0.9638787099888085</v>
       </c>
       <c r="D9">
-        <v>0.9890436142496953</v>
+        <v>0.9890436142496948</v>
       </c>
       <c r="E9">
-        <v>0.97501646062919</v>
+        <v>0.9750164606291898</v>
       </c>
       <c r="F9">
-        <v>0.9724490409217829</v>
+        <v>0.9724490409217823</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -726,19 +726,19 @@
         <v>1.029478212890628</v>
       </c>
       <c r="J9">
-        <v>0.9907748120110068</v>
+        <v>0.9907748120110063</v>
       </c>
       <c r="K9">
-        <v>1.00231698808623</v>
+        <v>1.002316988086229</v>
       </c>
       <c r="L9">
-        <v>0.98852831544312</v>
+        <v>0.9885283154431197</v>
       </c>
       <c r="M9">
-        <v>0.9860055099101018</v>
+        <v>0.9860055099101012</v>
       </c>
       <c r="N9">
-        <v>0.9921818258875217</v>
+        <v>0.9921818258875214</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,16 +749,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9486382959146548</v>
+        <v>0.9486382959146552</v>
       </c>
       <c r="D10">
-        <v>0.9775427451166894</v>
+        <v>0.9775427451166898</v>
       </c>
       <c r="E10">
-        <v>0.9623335020495484</v>
+        <v>0.9623335020495486</v>
       </c>
       <c r="F10">
-        <v>0.9571064488508563</v>
+        <v>0.9571064488508565</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -767,19 +767,19 @@
         <v>1.024805637027435</v>
       </c>
       <c r="J10">
-        <v>0.979049084127551</v>
+        <v>0.9790490841275514</v>
       </c>
       <c r="K10">
-        <v>0.9923296661278912</v>
+        <v>0.9923296661278915</v>
       </c>
       <c r="L10">
-        <v>0.977417852155724</v>
+        <v>0.9774178521557243</v>
       </c>
       <c r="M10">
-        <v>0.9722958936250751</v>
+        <v>0.9722958936250753</v>
       </c>
       <c r="N10">
-        <v>0.9804394461255116</v>
+        <v>0.9804394461255123</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9416588967186551</v>
+        <v>0.9416588967186529</v>
       </c>
       <c r="D11">
-        <v>0.9722871194111528</v>
+        <v>0.9722871194111508</v>
       </c>
       <c r="E11">
-        <v>0.9565409404561719</v>
+        <v>0.9565409404561698</v>
       </c>
       <c r="F11">
-        <v>0.9500889795859525</v>
+        <v>0.9500889795859501</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022651031081293</v>
+        <v>1.022651031081292</v>
       </c>
       <c r="J11">
-        <v>0.9736776024939885</v>
+        <v>0.9736776024939862</v>
       </c>
       <c r="K11">
-        <v>0.9877512927588755</v>
+        <v>0.9877512927588735</v>
       </c>
       <c r="L11">
-        <v>0.9723317610706923</v>
+        <v>0.9723317610706901</v>
       </c>
       <c r="M11">
-        <v>0.9660177932141569</v>
+        <v>0.9660177932141546</v>
       </c>
       <c r="N11">
-        <v>0.9750603363719118</v>
+        <v>0.9750603363719095</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9390023809837466</v>
+        <v>0.9390023809837483</v>
       </c>
       <c r="D12">
-        <v>0.9702887617343569</v>
+        <v>0.970288761734358</v>
       </c>
       <c r="E12">
-        <v>0.9543388210847776</v>
+        <v>0.9543388210847791</v>
       </c>
       <c r="F12">
-        <v>0.9474193738946678</v>
+        <v>0.947419373894669</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021828888242585</v>
+        <v>1.021828888242586</v>
       </c>
       <c r="J12">
-        <v>0.9716330472873141</v>
+        <v>0.9716330472873158</v>
       </c>
       <c r="K12">
-        <v>0.9860082119316479</v>
+        <v>0.9860082119316491</v>
       </c>
       <c r="L12">
-        <v>0.9703964122289831</v>
+        <v>0.9703964122289845</v>
       </c>
       <c r="M12">
-        <v>0.9636283702190402</v>
+        <v>0.9636283702190418</v>
       </c>
       <c r="N12">
-        <v>0.9730128776623304</v>
+        <v>0.9730128776623321</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,7 +872,7 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9395752359737145</v>
+        <v>0.9395752359737142</v>
       </c>
       <c r="D13">
         <v>0.970719591662545</v>
@@ -881,7 +881,7 @@
         <v>0.9548135639972515</v>
       </c>
       <c r="F13">
-        <v>0.9479949868968909</v>
+        <v>0.9479949868968905</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>1.022006265875538</v>
       </c>
       <c r="J13">
-        <v>0.9720739369080108</v>
+        <v>0.9720739369080106</v>
       </c>
       <c r="K13">
         <v>0.9863841083451605</v>
@@ -899,10 +899,10 @@
         <v>0.9708137256376765</v>
       </c>
       <c r="M13">
-        <v>0.9641436194214094</v>
+        <v>0.9641436194214091</v>
       </c>
       <c r="N13">
-        <v>0.9734543933968594</v>
+        <v>0.9734543933968589</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,16 +913,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9414406594669629</v>
+        <v>0.9414406594669656</v>
       </c>
       <c r="D14">
-        <v>0.9721229071671167</v>
+        <v>0.9721229071671187</v>
       </c>
       <c r="E14">
-        <v>0.9563599768684283</v>
+        <v>0.956359976868431</v>
       </c>
       <c r="F14">
-        <v>0.9498696380674544</v>
+        <v>0.9498696380674567</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -931,19 +931,19 @@
         <v>1.022583531123904</v>
       </c>
       <c r="J14">
-        <v>0.9735096385788409</v>
+        <v>0.9735096385788435</v>
       </c>
       <c r="K14">
-        <v>0.9876081032637757</v>
+        <v>0.9876081032637776</v>
       </c>
       <c r="L14">
-        <v>0.9721727566761715</v>
+        <v>0.972172756676174</v>
       </c>
       <c r="M14">
-        <v>0.9658214940152824</v>
+        <v>0.9658214940152844</v>
       </c>
       <c r="N14">
-        <v>0.9748921339287391</v>
+        <v>0.9748921339287417</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,16 +954,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9425812923665461</v>
+        <v>0.9425812923665452</v>
       </c>
       <c r="D15">
-        <v>0.9729812598848432</v>
+        <v>0.9729812598848422</v>
       </c>
       <c r="E15">
-        <v>0.9573059060263003</v>
+        <v>0.9573059060262994</v>
       </c>
       <c r="F15">
-        <v>0.9510160998429167</v>
+        <v>0.9510160998429152</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -972,19 +972,19 @@
         <v>1.022936242456152</v>
       </c>
       <c r="J15">
-        <v>0.9743875134900569</v>
+        <v>0.9743875134900557</v>
       </c>
       <c r="K15">
-        <v>0.9883564769448614</v>
+        <v>0.9883564769448603</v>
       </c>
       <c r="L15">
-        <v>0.973003827752196</v>
+        <v>0.9730038277521948</v>
       </c>
       <c r="M15">
-        <v>0.9668474734583364</v>
+        <v>0.9668474734583351</v>
       </c>
       <c r="N15">
-        <v>0.9757712555230228</v>
+        <v>0.9757712555230216</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,16 +995,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9490929199948928</v>
+        <v>0.9490929199948918</v>
       </c>
       <c r="D16">
-        <v>0.9778853465578974</v>
+        <v>0.9778853465578964</v>
       </c>
       <c r="E16">
-        <v>0.9627111647806097</v>
+        <v>0.9627111647806085</v>
       </c>
       <c r="F16">
-        <v>0.9575637395503466</v>
+        <v>0.957563739550346</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1013,19 +1013,19 @@
         <v>1.024945693003725</v>
       </c>
       <c r="J16">
-        <v>0.9793989537112875</v>
+        <v>0.9793989537112864</v>
       </c>
       <c r="K16">
-        <v>0.9926278165133834</v>
+        <v>0.9926278165133827</v>
       </c>
       <c r="L16">
-        <v>0.9777492094970122</v>
+        <v>0.9777492094970111</v>
       </c>
       <c r="M16">
-        <v>0.9727048518082413</v>
+        <v>0.9727048518082405</v>
       </c>
       <c r="N16">
-        <v>0.9807898125641876</v>
+        <v>0.9807898125641865</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.953071165121717</v>
+        <v>0.9530711651217165</v>
       </c>
       <c r="D17">
-        <v>0.9808846208583097</v>
+        <v>0.9808846208583093</v>
       </c>
       <c r="E17">
-        <v>0.9660177354211171</v>
+        <v>0.966017735421117</v>
       </c>
       <c r="F17">
-        <v>0.9615663064001445</v>
+        <v>0.9615663064001438</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026169631002674</v>
+        <v>1.026169631002673</v>
       </c>
       <c r="J17">
-        <v>0.9824603675864761</v>
+        <v>0.9824603675864759</v>
       </c>
       <c r="K17">
-        <v>0.9952363240267679</v>
+        <v>0.9952363240267674</v>
       </c>
       <c r="L17">
-        <v>0.9806490400076535</v>
+        <v>0.9806490400076534</v>
       </c>
       <c r="M17">
-        <v>0.9762835341051617</v>
+        <v>0.9762835341051613</v>
       </c>
       <c r="N17">
-        <v>0.9838555739982282</v>
+        <v>0.9838555739982278</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,16 +1077,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.955355450529405</v>
+        <v>0.9553554505294058</v>
       </c>
       <c r="D18">
-        <v>0.982607809091094</v>
+        <v>0.9826078090910949</v>
       </c>
       <c r="E18">
-        <v>0.9679177861199618</v>
+        <v>0.9679177861199627</v>
       </c>
       <c r="F18">
-        <v>0.9638653643651569</v>
+        <v>0.9638653643651577</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,19 +1095,19 @@
         <v>1.026871018327453</v>
       </c>
       <c r="J18">
-        <v>0.9842180462725627</v>
+        <v>0.9842180462725637</v>
       </c>
       <c r="K18">
-        <v>0.9967336630955972</v>
+        <v>0.996733663095598</v>
       </c>
       <c r="L18">
-        <v>0.982314274325674</v>
+        <v>0.9823142743256748</v>
       </c>
       <c r="M18">
-        <v>0.9783384087691845</v>
+        <v>0.9783384087691853</v>
       </c>
       <c r="N18">
-        <v>0.9856157487896577</v>
+        <v>0.9856157487896586</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,16 +1118,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9561283916619906</v>
+        <v>0.9561283916619895</v>
       </c>
       <c r="D19">
-        <v>0.9831910535135767</v>
+        <v>0.9831910535135758</v>
       </c>
       <c r="E19">
-        <v>0.9685609478951756</v>
+        <v>0.968560947895174</v>
       </c>
       <c r="F19">
-        <v>0.9646434386271009</v>
+        <v>0.9646434386270998</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1136,19 +1136,19 @@
         <v>1.027108108514805</v>
       </c>
       <c r="J19">
-        <v>0.9848127640019105</v>
+        <v>0.9848127640019092</v>
       </c>
       <c r="K19">
-        <v>0.9972402394076713</v>
+        <v>0.9972402394076703</v>
       </c>
       <c r="L19">
-        <v>0.9828777673748432</v>
+        <v>0.9828777673748419</v>
       </c>
       <c r="M19">
-        <v>0.9790337228299496</v>
+        <v>0.9790337228299485</v>
       </c>
       <c r="N19">
-        <v>0.9862113110863961</v>
+        <v>0.9862113110863948</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9526481233850578</v>
+        <v>0.9526481233850611</v>
       </c>
       <c r="D20">
-        <v>0.9805655729276568</v>
+        <v>0.9805655729276593</v>
       </c>
       <c r="E20">
-        <v>0.9656659671789123</v>
+        <v>0.9656659671789153</v>
       </c>
       <c r="F20">
-        <v>0.9611405937378165</v>
+        <v>0.9611405937378195</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026039622536814</v>
+        <v>1.026039622536815</v>
       </c>
       <c r="J20">
-        <v>0.9821348366985041</v>
+        <v>0.9821348366985072</v>
       </c>
       <c r="K20">
-        <v>0.9949589838057141</v>
+        <v>0.9949589838057166</v>
       </c>
       <c r="L20">
-        <v>0.9803406565164368</v>
+        <v>0.9803406565164394</v>
       </c>
       <c r="M20">
-        <v>0.9759029789308927</v>
+        <v>0.9759029789308956</v>
       </c>
       <c r="N20">
-        <v>0.9835295808190563</v>
+        <v>0.9835295808190593</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,16 +1200,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9408931687966039</v>
+        <v>0.9408931687966038</v>
       </c>
       <c r="D21">
-        <v>0.9717109830180251</v>
+        <v>0.9717109830180249</v>
       </c>
       <c r="E21">
-        <v>0.9559060382795314</v>
+        <v>0.9559060382795311</v>
       </c>
       <c r="F21">
-        <v>0.9493193999415003</v>
+        <v>0.9493193999414999</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1218,19 +1218,19 @@
         <v>1.022414162006976</v>
       </c>
       <c r="J21">
-        <v>0.97308826831045</v>
+        <v>0.9730882683104497</v>
       </c>
       <c r="K21">
-        <v>0.987248878209764</v>
+        <v>0.9872488782097638</v>
       </c>
       <c r="L21">
-        <v>0.9717738725579933</v>
+        <v>0.9717738725579932</v>
       </c>
       <c r="M21">
-        <v>0.9653290422893382</v>
+        <v>0.9653290422893379</v>
       </c>
       <c r="N21">
-        <v>0.9744701652662351</v>
+        <v>0.9744701652662352</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1244,34 +1244,34 @@
         <v>0.9331273691707566</v>
       </c>
       <c r="D22">
-        <v>0.9658735451437654</v>
+        <v>0.9658735451437653</v>
       </c>
       <c r="E22">
-        <v>0.9494740349234234</v>
+        <v>0.9494740349234232</v>
       </c>
       <c r="F22">
-        <v>0.9415181154527245</v>
+        <v>0.9415181154527246</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020007095489755</v>
+        <v>1.020007095489756</v>
       </c>
       <c r="J22">
-        <v>0.9671115732472765</v>
+        <v>0.9671115732472767</v>
       </c>
       <c r="K22">
-        <v>0.9821527844517033</v>
+        <v>0.9821527844517034</v>
       </c>
       <c r="L22">
-        <v>0.9661175708887559</v>
+        <v>0.9661175708887558</v>
       </c>
       <c r="M22">
-        <v>0.9583445022681759</v>
+        <v>0.958344502268176</v>
       </c>
       <c r="N22">
-        <v>0.9684849826105355</v>
+        <v>0.9684849826105356</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9372823617490643</v>
+        <v>0.9372823617490628</v>
       </c>
       <c r="D23">
-        <v>0.9689955100329313</v>
+        <v>0.9689955100329295</v>
       </c>
       <c r="E23">
-        <v>0.9529138035981159</v>
+        <v>0.9529138035981143</v>
       </c>
       <c r="F23">
-        <v>0.9456912866244961</v>
+        <v>0.9456912866244941</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02129601869424</v>
+        <v>1.021296018694239</v>
       </c>
       <c r="J23">
-        <v>0.9703092690153404</v>
+        <v>0.9703092690153388</v>
       </c>
       <c r="K23">
-        <v>0.9848795238376276</v>
+        <v>0.9848795238376259</v>
       </c>
       <c r="L23">
-        <v>0.9691435105544395</v>
+        <v>0.9691435105544376</v>
       </c>
       <c r="M23">
-        <v>0.9620813490299688</v>
+        <v>0.962081349029967</v>
       </c>
       <c r="N23">
-        <v>0.9716872194733708</v>
+        <v>0.9716872194733691</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,16 +1323,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.952839388964676</v>
+        <v>0.9528393889646752</v>
       </c>
       <c r="D24">
-        <v>0.9807098176861931</v>
+        <v>0.9807098176861926</v>
       </c>
       <c r="E24">
-        <v>0.9658250041469684</v>
+        <v>0.9658250041469676</v>
       </c>
       <c r="F24">
-        <v>0.9613330643916157</v>
+        <v>0.961333064391615</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1341,19 +1341,19 @@
         <v>1.026098406287507</v>
       </c>
       <c r="J24">
-        <v>0.9822820162200417</v>
+        <v>0.9822820162200409</v>
       </c>
       <c r="K24">
-        <v>0.9950843762538397</v>
+        <v>0.9950843762538391</v>
       </c>
       <c r="L24">
-        <v>0.9804800823167094</v>
+        <v>0.9804800823167087</v>
       </c>
       <c r="M24">
-        <v>0.9760750354502046</v>
+        <v>0.9760750354502041</v>
       </c>
       <c r="N24">
-        <v>0.9836769693523961</v>
+        <v>0.9836769693523956</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,16 +1364,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9694896073581735</v>
+        <v>0.9694896073581746</v>
       </c>
       <c r="D25">
-        <v>0.993285188013444</v>
+        <v>0.9932851880134451</v>
       </c>
       <c r="E25">
-        <v>0.9796972306381241</v>
+        <v>0.9796972306381252</v>
       </c>
       <c r="F25">
-        <v>0.9781043781870297</v>
+        <v>0.9781043781870308</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1382,19 +1382,19 @@
         <v>1.031185120680039</v>
       </c>
       <c r="J25">
-        <v>0.9950892772612513</v>
+        <v>0.9950892772612526</v>
       </c>
       <c r="K25">
-        <v>1.005988644884535</v>
+        <v>1.005988644884536</v>
       </c>
       <c r="L25">
-        <v>0.9926191154918785</v>
+        <v>0.9926191154918798</v>
       </c>
       <c r="M25">
-        <v>0.9910523793945727</v>
+        <v>0.9910523793945738</v>
       </c>
       <c r="N25">
-        <v>0.9965024181732977</v>
+        <v>0.9965024181732989</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_15/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9818423528737477</v>
+        <v>0.9892991858751079</v>
       </c>
       <c r="D2">
-        <v>1.002634798735584</v>
+        <v>1.0090730820239</v>
       </c>
       <c r="E2">
-        <v>0.9900231092511362</v>
+        <v>0.9970820444385458</v>
       </c>
       <c r="F2">
-        <v>0.9905685874232317</v>
+        <v>1.020386895335346</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034911993854299</v>
+        <v>1.039279896389661</v>
       </c>
       <c r="J2">
-        <v>1.00458005960998</v>
+        <v>1.011804736078107</v>
       </c>
       <c r="K2">
-        <v>1.014057548269787</v>
+        <v>1.020407445181424</v>
       </c>
       <c r="L2">
-        <v>1.001623210453606</v>
+        <v>1.00858218126523</v>
       </c>
       <c r="M2">
-        <v>1.002160899621477</v>
+        <v>1.031569330826895</v>
       </c>
       <c r="N2">
-        <v>1.00600667852157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.007541791889832</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.03355736428989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9903543119095845</v>
+        <v>0.9941505537764682</v>
       </c>
       <c r="D3">
-        <v>1.009084801065144</v>
+        <v>1.012423809320495</v>
       </c>
       <c r="E3">
-        <v>0.997154635285442</v>
+        <v>1.000980335223321</v>
       </c>
       <c r="F3">
-        <v>0.9991688109566024</v>
+        <v>1.023562134433925</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037451054362247</v>
+        <v>1.040302217876008</v>
       </c>
       <c r="J3">
-        <v>1.011111427143978</v>
+        <v>1.014801960801422</v>
       </c>
       <c r="K3">
-        <v>1.019602744995309</v>
+        <v>1.022900155306694</v>
       </c>
       <c r="L3">
-        <v>1.007824053013671</v>
+        <v>1.011600687826425</v>
       </c>
       <c r="M3">
-        <v>1.009812338060872</v>
+        <v>1.033902154790261</v>
       </c>
       <c r="N3">
-        <v>1.012547321346624</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.008585255635962</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.035403653636285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9956727879934081</v>
+        <v>0.9972211869109464</v>
       </c>
       <c r="D4">
-        <v>1.013117195721877</v>
+        <v>1.014546719504533</v>
       </c>
       <c r="E4">
-        <v>1.001617123749365</v>
+        <v>1.003453804860184</v>
       </c>
       <c r="F4">
-        <v>1.004547451613997</v>
+        <v>1.025581237243282</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039023531224089</v>
+        <v>1.040938174204681</v>
       </c>
       <c r="J4">
-        <v>1.015187835762062</v>
+        <v>1.016696243108503</v>
       </c>
       <c r="K4">
-        <v>1.023059844137664</v>
+        <v>1.024472692292671</v>
       </c>
       <c r="L4">
-        <v>1.011696070617236</v>
+        <v>1.013510723468387</v>
       </c>
       <c r="M4">
-        <v>1.014591300999775</v>
+        <v>1.035380419737267</v>
       </c>
       <c r="N4">
-        <v>1.016629518932516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.009244006364209</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.036573608610573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9978662826970199</v>
+        <v>0.998496285595325</v>
       </c>
       <c r="D5">
-        <v>1.014780664724191</v>
+        <v>1.015428700174629</v>
       </c>
       <c r="E5">
-        <v>1.003459025857885</v>
+        <v>1.004482332768265</v>
       </c>
       <c r="F5">
-        <v>1.006766926457944</v>
+        <v>1.026421844853241</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039668629709156</v>
+        <v>1.041199541106237</v>
       </c>
       <c r="J5">
-        <v>1.016867889974386</v>
+        <v>1.01748214031766</v>
       </c>
       <c r="K5">
-        <v>1.024483702761889</v>
+        <v>1.02512439060804</v>
       </c>
       <c r="L5">
-        <v>1.013292324877394</v>
+        <v>1.014303708918217</v>
       </c>
       <c r="M5">
-        <v>1.016561792166012</v>
+        <v>1.035994629981857</v>
       </c>
       <c r="N5">
-        <v>1.018311959014527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.009517125054937</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.037059717338405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9982321740581291</v>
+        <v>0.9987094711451238</v>
       </c>
       <c r="D6">
-        <v>1.015058162600519</v>
+        <v>1.01557618294672</v>
       </c>
       <c r="E6">
-        <v>1.003766350245385</v>
+        <v>1.004654374883366</v>
       </c>
       <c r="F6">
-        <v>1.007137219118573</v>
+        <v>1.026562512054225</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03977603254538</v>
+        <v>1.041243078161322</v>
       </c>
       <c r="J6">
-        <v>1.01714806411</v>
+        <v>1.0176134922408</v>
       </c>
       <c r="K6">
-        <v>1.024721095327289</v>
+        <v>1.02523327045674</v>
       </c>
       <c r="L6">
-        <v>1.013558549401763</v>
+        <v>1.014436278035405</v>
       </c>
       <c r="M6">
-        <v>1.016890454475251</v>
+        <v>1.036097339605951</v>
       </c>
       <c r="N6">
-        <v>1.01859253102955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.009562762121568</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.037141005505176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9957022604906395</v>
+        <v>0.9972382861236808</v>
       </c>
       <c r="D7">
-        <v>1.013139545267575</v>
+        <v>1.014558545358754</v>
       </c>
       <c r="E7">
-        <v>1.001641866584808</v>
+        <v>1.003467592049201</v>
       </c>
       <c r="F7">
-        <v>1.004577268613294</v>
+        <v>1.025592501442211</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039032212692874</v>
+        <v>1.040941689969554</v>
       </c>
       <c r="J7">
-        <v>1.015210414273417</v>
+        <v>1.016706784960522</v>
       </c>
       <c r="K7">
-        <v>1.023078983421583</v>
+        <v>1.024481436879207</v>
       </c>
       <c r="L7">
-        <v>1.011717521214551</v>
+        <v>1.013521358216149</v>
       </c>
       <c r="M7">
-        <v>1.014617779166324</v>
+        <v>1.035388655052551</v>
       </c>
       <c r="N7">
-        <v>1.016652129507947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.009247670651016</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.036580126346188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9847600742757087</v>
+        <v>0.9909532949711152</v>
       </c>
       <c r="D8">
-        <v>1.004845142053863</v>
+        <v>1.010215051446554</v>
       </c>
       <c r="E8">
-        <v>0.992466179626028</v>
+        <v>0.9984098854080981</v>
       </c>
       <c r="F8">
-        <v>0.9935154782779014</v>
+        <v>1.021467499072408</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035785241675607</v>
+        <v>1.039630765506418</v>
       </c>
       <c r="J8">
-        <v>1.006819783823221</v>
+        <v>1.012827217678879</v>
       </c>
       <c r="K8">
-        <v>1.015959880369553</v>
+        <v>1.021258408618542</v>
       </c>
       <c r="L8">
-        <v>1.003749177728186</v>
+        <v>1.009611438975118</v>
       </c>
       <c r="M8">
-        <v>1.004784008941962</v>
+        <v>1.032364323867493</v>
       </c>
       <c r="N8">
-        <v>1.008249583400094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.007897911000051</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.034186553835103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9638787099888085</v>
+        <v>0.9793243364605436</v>
       </c>
       <c r="D9">
-        <v>0.9890436142496948</v>
+        <v>1.002198687868746</v>
       </c>
       <c r="E9">
-        <v>0.9750164606291898</v>
+        <v>0.9891029251742164</v>
       </c>
       <c r="F9">
-        <v>0.9724490409217823</v>
+        <v>1.013913962665204</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029478212890628</v>
+        <v>1.037118884674288</v>
       </c>
       <c r="J9">
-        <v>0.9907748120110063</v>
+        <v>1.005628942881385</v>
       </c>
       <c r="K9">
-        <v>1.002316988086229</v>
+        <v>1.015256193334598</v>
       </c>
       <c r="L9">
-        <v>0.9885283154431197</v>
+        <v>1.002375309145837</v>
       </c>
       <c r="M9">
-        <v>0.9860055099101012</v>
+        <v>1.026785258199324</v>
       </c>
       <c r="N9">
-        <v>0.9921818258875214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.005388024646056</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.029771044384137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9486382959146552</v>
+        <v>0.9712587866939361</v>
       </c>
       <c r="D10">
-        <v>0.9775427451166898</v>
+        <v>0.9966717140896522</v>
       </c>
       <c r="E10">
-        <v>0.9623335020495486</v>
+        <v>0.982697650394858</v>
       </c>
       <c r="F10">
-        <v>0.9571064488508565</v>
+        <v>1.008909198918039</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024805637027435</v>
+        <v>1.035354546657639</v>
       </c>
       <c r="J10">
-        <v>0.9790490841275514</v>
+        <v>1.000661029706424</v>
       </c>
       <c r="K10">
-        <v>0.9923296661278915</v>
+        <v>1.011101322920538</v>
       </c>
       <c r="L10">
-        <v>0.9774178521557243</v>
+        <v>0.9973864928942926</v>
       </c>
       <c r="M10">
-        <v>0.9722958936250753</v>
+        <v>1.023119436862873</v>
       </c>
       <c r="N10">
-        <v>0.9804394461255123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.003661697719882</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.026921912396124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9416588967186529</v>
+        <v>0.9684871720127808</v>
       </c>
       <c r="D11">
-        <v>0.9722871194111508</v>
+        <v>0.9948940931671834</v>
       </c>
       <c r="E11">
-        <v>0.9565409404561698</v>
+        <v>0.9806027239144842</v>
       </c>
       <c r="F11">
-        <v>0.9500889795859501</v>
+        <v>1.008593353453586</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022651031081292</v>
+        <v>1.034996845354529</v>
       </c>
       <c r="J11">
-        <v>0.9736776024939862</v>
+        <v>0.9992323353184468</v>
       </c>
       <c r="K11">
-        <v>0.9877512927588735</v>
+        <v>1.009912946090282</v>
       </c>
       <c r="L11">
-        <v>0.9723317610706901</v>
+        <v>0.995899955860323</v>
       </c>
       <c r="M11">
-        <v>0.9660177932141546</v>
+        <v>1.023355011112644</v>
       </c>
       <c r="N11">
-        <v>0.9750603363719095</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00324469738922</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.027550126414687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9390023809837483</v>
+        <v>0.9677400479201795</v>
       </c>
       <c r="D12">
-        <v>0.970288761734358</v>
+        <v>0.9944725927555911</v>
       </c>
       <c r="E12">
-        <v>0.9543388210847791</v>
+        <v>0.9800887779338027</v>
       </c>
       <c r="F12">
-        <v>0.947419373894669</v>
+        <v>1.009130118121933</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021828888242586</v>
+        <v>1.035019145970594</v>
       </c>
       <c r="J12">
-        <v>0.9716330472873158</v>
+        <v>0.9989753622419317</v>
       </c>
       <c r="K12">
-        <v>0.9860082119316491</v>
+        <v>1.009706460893584</v>
       </c>
       <c r="L12">
-        <v>0.9703964122289845</v>
+        <v>0.9956076527556299</v>
       </c>
       <c r="M12">
-        <v>0.9636283702190418</v>
+        <v>1.024084465252426</v>
       </c>
       <c r="N12">
-        <v>0.9730128776623321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.00322299482156</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.028457039034499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9395752359737142</v>
+        <v>0.9685027819456723</v>
       </c>
       <c r="D13">
-        <v>0.970719591662545</v>
+        <v>0.99506593221763</v>
       </c>
       <c r="E13">
-        <v>0.9548135639972515</v>
+        <v>0.9807550450071246</v>
       </c>
       <c r="F13">
-        <v>0.9479949868968905</v>
+        <v>1.010377744270733</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022006265875538</v>
+        <v>1.035339592494319</v>
       </c>
       <c r="J13">
-        <v>0.9720739369080106</v>
+        <v>0.9996049315193638</v>
       </c>
       <c r="K13">
-        <v>0.9863841083451605</v>
+        <v>1.010243921692761</v>
       </c>
       <c r="L13">
-        <v>0.9708137256376765</v>
+        <v>0.9962151660824294</v>
       </c>
       <c r="M13">
-        <v>0.9641436194214091</v>
+        <v>1.025265412109762</v>
       </c>
       <c r="N13">
-        <v>0.9734543933968589</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.003504073465155</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.029669941712016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9414406594669656</v>
+        <v>0.9697101346111145</v>
       </c>
       <c r="D14">
-        <v>0.9721229071671187</v>
+        <v>0.9959326898445627</v>
       </c>
       <c r="E14">
-        <v>0.956359976868431</v>
+        <v>0.9817469101483207</v>
       </c>
       <c r="F14">
-        <v>0.9498696380674567</v>
+        <v>1.011556095004397</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022583531123904</v>
+        <v>1.035693349298421</v>
       </c>
       <c r="J14">
-        <v>0.9735096385788435</v>
+        <v>1.000437191948103</v>
       </c>
       <c r="K14">
-        <v>0.9876081032637776</v>
+        <v>1.010948789628782</v>
       </c>
       <c r="L14">
-        <v>0.972172756676174</v>
+        <v>0.9970388956421099</v>
       </c>
       <c r="M14">
-        <v>0.9658214940152844</v>
+        <v>1.026280009453419</v>
       </c>
       <c r="N14">
-        <v>0.9748921339287417</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.003834210194798</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.030646545112087</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9425812923665452</v>
+        <v>0.9703395371042791</v>
       </c>
       <c r="D15">
-        <v>0.9729812598848422</v>
+        <v>0.9963709175651868</v>
       </c>
       <c r="E15">
-        <v>0.9573059060262994</v>
+        <v>0.9822519234491051</v>
       </c>
       <c r="F15">
-        <v>0.9510160998429152</v>
+        <v>1.012030445827307</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022936242456152</v>
+        <v>1.03584954523581</v>
       </c>
       <c r="J15">
-        <v>0.9743875134900557</v>
+        <v>1.000841570076923</v>
       </c>
       <c r="K15">
-        <v>0.9883564769448603</v>
+        <v>1.011289288879194</v>
       </c>
       <c r="L15">
-        <v>0.9730038277521948</v>
+        <v>0.9974426494524</v>
       </c>
       <c r="M15">
-        <v>0.9668474734583351</v>
+        <v>1.02665830907951</v>
       </c>
       <c r="N15">
-        <v>0.9757712555230216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.003983425168788</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.030983327476953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9490929199948918</v>
+        <v>0.9736019807936186</v>
       </c>
       <c r="D16">
-        <v>0.9778853465578964</v>
+        <v>0.9985881557434459</v>
       </c>
       <c r="E16">
-        <v>0.9627111647806085</v>
+        <v>0.9848215189397729</v>
       </c>
       <c r="F16">
-        <v>0.957563739550346</v>
+        <v>1.013952564609549</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024945693003725</v>
+        <v>1.036545292503124</v>
       </c>
       <c r="J16">
-        <v>0.9793989537112864</v>
+        <v>1.002823284396519</v>
       </c>
       <c r="K16">
-        <v>0.9926278165133827</v>
+        <v>1.012946195494789</v>
       </c>
       <c r="L16">
-        <v>0.9777492094970111</v>
+        <v>0.9994328405475665</v>
       </c>
       <c r="M16">
-        <v>0.9727048518082405</v>
+        <v>1.028038437752858</v>
       </c>
       <c r="N16">
-        <v>0.9807898125641865</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.00465880013901</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.03203520744128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9530711651217165</v>
+        <v>0.9754764414154142</v>
       </c>
       <c r="D17">
-        <v>0.9808846208583093</v>
+        <v>0.999839283673139</v>
       </c>
       <c r="E17">
-        <v>0.966017735421117</v>
+        <v>0.9862787697001787</v>
       </c>
       <c r="F17">
-        <v>0.9615663064001438</v>
+        <v>1.014808533589823</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026169631002673</v>
+        <v>1.036893039070617</v>
       </c>
       <c r="J17">
-        <v>0.9824603675864759</v>
+        <v>1.003910773667975</v>
       </c>
       <c r="K17">
-        <v>0.9952363240267674</v>
+        <v>1.013850131415707</v>
       </c>
       <c r="L17">
-        <v>0.9806490400076534</v>
+        <v>1.000531736473476</v>
       </c>
       <c r="M17">
-        <v>0.9762835341051613</v>
+        <v>1.028561803707282</v>
       </c>
       <c r="N17">
-        <v>0.9838555739982278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.005004833036914</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.032318984549925</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9553554505294058</v>
+        <v>0.9763126958695134</v>
       </c>
       <c r="D18">
-        <v>0.9826078090910949</v>
+        <v>1.000355298098982</v>
       </c>
       <c r="E18">
-        <v>0.9679177861199627</v>
+        <v>0.986892802259314</v>
       </c>
       <c r="F18">
-        <v>0.9638653643651577</v>
+        <v>1.014715866867167</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026871018327453</v>
+        <v>1.036957443676329</v>
       </c>
       <c r="J18">
-        <v>0.9842180462725637</v>
+        <v>1.004301446348284</v>
       </c>
       <c r="K18">
-        <v>0.996733663095598</v>
+        <v>1.014167901451993</v>
       </c>
       <c r="L18">
-        <v>0.9823142743256748</v>
+        <v>1.000941684680082</v>
       </c>
       <c r="M18">
-        <v>0.9783384087691853</v>
+        <v>1.028285329601554</v>
       </c>
       <c r="N18">
-        <v>0.9856157487896586</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.00508901456515</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.031860873624461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9561283916619895</v>
+        <v>0.9761824762916826</v>
       </c>
       <c r="D19">
-        <v>0.9831910535135758</v>
+        <v>1.000185667216817</v>
       </c>
       <c r="E19">
-        <v>0.968560947895174</v>
+        <v>0.9867212019038549</v>
       </c>
       <c r="F19">
-        <v>0.9646434386270998</v>
+        <v>1.013701362068468</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027108108514805</v>
+        <v>1.036754650372775</v>
       </c>
       <c r="J19">
-        <v>0.9848127640019092</v>
+        <v>1.004036401881276</v>
       </c>
       <c r="K19">
-        <v>0.9972402394076703</v>
+        <v>1.013936670346365</v>
       </c>
       <c r="L19">
-        <v>0.9828777673748419</v>
+        <v>1.000707351959816</v>
       </c>
       <c r="M19">
-        <v>0.9790337228299485</v>
+        <v>1.027224412033324</v>
       </c>
       <c r="N19">
-        <v>0.9862113110863948</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.004932745055091</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.030693399215567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9526481233850611</v>
+        <v>0.9733581894156569</v>
       </c>
       <c r="D20">
-        <v>0.9805655729276593</v>
+        <v>0.9981092801549174</v>
       </c>
       <c r="E20">
-        <v>0.9656659671789153</v>
+        <v>0.9843623497354287</v>
       </c>
       <c r="F20">
-        <v>0.9611405937378195</v>
+        <v>1.010215651639043</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026039622536815</v>
+        <v>1.035818965302648</v>
       </c>
       <c r="J20">
-        <v>0.9821348366985072</v>
+        <v>1.001956196694784</v>
       </c>
       <c r="K20">
-        <v>0.9949589838057166</v>
+        <v>1.012185457265417</v>
       </c>
       <c r="L20">
-        <v>0.9803406565164394</v>
+        <v>0.9986858568827521</v>
       </c>
       <c r="M20">
-        <v>0.9759029789308956</v>
+        <v>1.024081218484661</v>
       </c>
       <c r="N20">
-        <v>0.9835295808190593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.004112330259834</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.027672374215936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9408931687966038</v>
+        <v>0.9671125126243063</v>
       </c>
       <c r="D21">
-        <v>0.9717109830180249</v>
+        <v>0.9938156703881251</v>
       </c>
       <c r="E21">
-        <v>0.9559060382795311</v>
+        <v>0.9793989882762789</v>
       </c>
       <c r="F21">
-        <v>0.9493193999414999</v>
+        <v>1.006088960102056</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022414162006976</v>
+        <v>1.034384823818707</v>
       </c>
       <c r="J21">
-        <v>0.9730882683104497</v>
+        <v>0.9980526352802176</v>
       </c>
       <c r="K21">
-        <v>0.9872488782097638</v>
+        <v>1.008915161707279</v>
       </c>
       <c r="L21">
-        <v>0.9717738725579932</v>
+        <v>0.9947814541884785</v>
       </c>
       <c r="M21">
-        <v>0.9653290422893379</v>
+        <v>1.020955886259114</v>
       </c>
       <c r="N21">
-        <v>0.9744701652662352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.002740757673644</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.025157401856863</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9331273691707566</v>
+        <v>0.9631347713959253</v>
       </c>
       <c r="D22">
-        <v>0.9658735451437653</v>
+        <v>0.9910940790379466</v>
       </c>
       <c r="E22">
-        <v>0.9494740349234232</v>
+        <v>0.976253269319004</v>
       </c>
       <c r="F22">
-        <v>0.9415181154527246</v>
+        <v>1.003563461436052</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020007095489756</v>
+        <v>1.033477050087981</v>
       </c>
       <c r="J22">
-        <v>0.9671115732472767</v>
+        <v>0.9955828404596681</v>
       </c>
       <c r="K22">
-        <v>0.9821527844517034</v>
+        <v>1.006844052849557</v>
       </c>
       <c r="L22">
-        <v>0.9661175708887558</v>
+        <v>0.9923103024570301</v>
       </c>
       <c r="M22">
-        <v>0.958344502268176</v>
+        <v>1.019064654453933</v>
       </c>
       <c r="N22">
-        <v>0.9684849826105356</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.001876897292627</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.023660584265346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9372823617490628</v>
+        <v>0.9652534142616918</v>
       </c>
       <c r="D23">
-        <v>0.9689955100329295</v>
+        <v>0.9925430802700028</v>
       </c>
       <c r="E23">
-        <v>0.9529138035981143</v>
+        <v>0.9779278353647073</v>
       </c>
       <c r="F23">
-        <v>0.9456912866244941</v>
+        <v>1.004907183758533</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021296018694239</v>
+        <v>1.033961495679939</v>
       </c>
       <c r="J23">
-        <v>0.9703092690153388</v>
+        <v>0.9968983843172454</v>
       </c>
       <c r="K23">
-        <v>0.9848795238376259</v>
+        <v>1.00794744747865</v>
       </c>
       <c r="L23">
-        <v>0.9691435105544376</v>
+        <v>0.993626316976251</v>
       </c>
       <c r="M23">
-        <v>0.962081349029967</v>
+        <v>1.020071477610984</v>
       </c>
       <c r="N23">
-        <v>0.9716872194733691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.002337079630141</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.024457436023672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9528393889646752</v>
+        <v>0.9733794337330374</v>
       </c>
       <c r="D24">
-        <v>0.9807098176861926</v>
+        <v>0.9981127474723219</v>
       </c>
       <c r="E24">
-        <v>0.9658250041469676</v>
+        <v>0.9843701106303095</v>
       </c>
       <c r="F24">
-        <v>0.961333064391615</v>
+        <v>1.010091080989074</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026098406287507</v>
+        <v>1.035798647479491</v>
       </c>
       <c r="J24">
-        <v>0.9822820162200409</v>
+        <v>1.001942182072539</v>
       </c>
       <c r="K24">
-        <v>0.9950843762538391</v>
+        <v>1.012173086636969</v>
       </c>
       <c r="L24">
-        <v>0.9804800823167087</v>
+        <v>0.9986773792695209</v>
       </c>
       <c r="M24">
-        <v>0.9760750354502041</v>
+        <v>1.023943273469756</v>
       </c>
       <c r="N24">
-        <v>0.9836769693523956</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.004100395499763</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.027521766213811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9694896073581746</v>
+        <v>0.9824006640368665</v>
       </c>
       <c r="D25">
-        <v>0.9932851880134451</v>
+        <v>1.004316455974469</v>
       </c>
       <c r="E25">
-        <v>0.9796972306381252</v>
+        <v>0.9915586351870703</v>
       </c>
       <c r="F25">
-        <v>0.9781043781870308</v>
+        <v>1.015902383292152</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031185120680039</v>
+        <v>1.037793097333294</v>
       </c>
       <c r="J25">
-        <v>0.9950892772612526</v>
+        <v>1.007535187280194</v>
       </c>
       <c r="K25">
-        <v>1.005988644884536</v>
+        <v>1.016848132045805</v>
       </c>
       <c r="L25">
-        <v>0.9926191154918798</v>
+        <v>1.004289421304406</v>
       </c>
       <c r="M25">
-        <v>0.9910523793945738</v>
+        <v>1.028258750861696</v>
       </c>
       <c r="N25">
-        <v>0.9965024181732989</v>
+        <v>1.006053282533879</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.030937231755468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_15/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9892991858751079</v>
+        <v>0.9909940319497906</v>
       </c>
       <c r="D2">
-        <v>1.0090730820239</v>
+        <v>1.010591207692599</v>
       </c>
       <c r="E2">
-        <v>0.9970820444385458</v>
+        <v>0.9985691435488308</v>
       </c>
       <c r="F2">
-        <v>1.020386895335346</v>
+        <v>1.021112969372732</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.039279896389661</v>
+        <v>1.039938417386759</v>
       </c>
       <c r="J2">
-        <v>1.011804736078107</v>
+        <v>1.013447487632684</v>
       </c>
       <c r="K2">
-        <v>1.020407445181424</v>
+        <v>1.021904936093526</v>
       </c>
       <c r="L2">
-        <v>1.00858218126523</v>
+        <v>1.010048448533485</v>
       </c>
       <c r="M2">
-        <v>1.031569330826895</v>
+        <v>1.032285798998082</v>
       </c>
       <c r="N2">
-        <v>1.007541791889832</v>
+        <v>1.010552876349859</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.03355736428989</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034124406112496</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.017916033819604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9941505537764682</v>
+        <v>0.995488537793439</v>
       </c>
       <c r="D3">
-        <v>1.012423809320495</v>
+        <v>1.013550416073386</v>
       </c>
       <c r="E3">
-        <v>1.000980335223321</v>
+        <v>1.002156614236397</v>
       </c>
       <c r="F3">
-        <v>1.023562134433925</v>
+        <v>1.024130091531297</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.040302217876008</v>
+        <v>1.040795386516927</v>
       </c>
       <c r="J3">
-        <v>1.014801960801422</v>
+        <v>1.016102949971832</v>
       </c>
       <c r="K3">
-        <v>1.022900155306694</v>
+        <v>1.024012803591979</v>
       </c>
       <c r="L3">
-        <v>1.011600687826425</v>
+        <v>1.012761974952275</v>
       </c>
       <c r="M3">
-        <v>1.033902154790261</v>
+        <v>1.034463259125209</v>
       </c>
       <c r="N3">
-        <v>1.008585255635962</v>
+        <v>1.011287046193929</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.035403653636285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035847733126362</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.018382573657659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9972211869109464</v>
+        <v>0.9983368488504784</v>
       </c>
       <c r="D4">
-        <v>1.014546719504533</v>
+        <v>1.015427886886873</v>
       </c>
       <c r="E4">
-        <v>1.003453804860184</v>
+        <v>1.004436134723242</v>
       </c>
       <c r="F4">
-        <v>1.025581237243282</v>
+        <v>1.026050707109822</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.040938174204681</v>
+        <v>1.041327628182402</v>
       </c>
       <c r="J4">
-        <v>1.016696243108503</v>
+        <v>1.017783194097682</v>
       </c>
       <c r="K4">
-        <v>1.024472692292671</v>
+        <v>1.025343609630837</v>
       </c>
       <c r="L4">
-        <v>1.013510723468387</v>
+        <v>1.014481312747315</v>
       </c>
       <c r="M4">
-        <v>1.035380419737267</v>
+        <v>1.035844569802204</v>
       </c>
       <c r="N4">
-        <v>1.009244006364209</v>
+        <v>1.01175117099736</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.036573608610573</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03694095418713</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.018674324276511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.998496285595325</v>
+        <v>0.9995204258159466</v>
       </c>
       <c r="D5">
-        <v>1.015428700174629</v>
+        <v>1.016208488156062</v>
       </c>
       <c r="E5">
-        <v>1.004482332768265</v>
+        <v>1.005384757088854</v>
       </c>
       <c r="F5">
-        <v>1.026421844853241</v>
+        <v>1.026850777541078</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.041199541106237</v>
+        <v>1.041546143919901</v>
       </c>
       <c r="J5">
-        <v>1.01748214031766</v>
+        <v>1.018480730134514</v>
       </c>
       <c r="K5">
-        <v>1.02512439060804</v>
+        <v>1.025895352449264</v>
       </c>
       <c r="L5">
-        <v>1.014303708918217</v>
+        <v>1.01519564370548</v>
       </c>
       <c r="M5">
-        <v>1.035994629981857</v>
+        <v>1.036418832690408</v>
       </c>
       <c r="N5">
-        <v>1.009517125054937</v>
+        <v>1.011943742002362</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.037059717338405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037395446873604</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.018794602794534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9987094711451238</v>
+        <v>0.9997183552013823</v>
       </c>
       <c r="D6">
-        <v>1.01557618294672</v>
+        <v>1.016339052175382</v>
       </c>
       <c r="E6">
-        <v>1.004654374883366</v>
+        <v>1.005543475931343</v>
       </c>
       <c r="F6">
-        <v>1.026562512054225</v>
+        <v>1.026984687843501</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.041243078161322</v>
+        <v>1.041582529118493</v>
       </c>
       <c r="J6">
-        <v>1.0176134922408</v>
+        <v>1.01859733861203</v>
       </c>
       <c r="K6">
-        <v>1.02523327045674</v>
+        <v>1.025987545016537</v>
       </c>
       <c r="L6">
-        <v>1.014436278035405</v>
+        <v>1.015315093107481</v>
       </c>
       <c r="M6">
-        <v>1.036097339605951</v>
+        <v>1.0365148813806</v>
       </c>
       <c r="N6">
-        <v>1.009562762121568</v>
+        <v>1.011975928135796</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.037141005505176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.03747146329723</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.018814660375224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9972382861236808</v>
+        <v>0.9983646714054378</v>
       </c>
       <c r="D7">
-        <v>1.014558545358754</v>
+        <v>1.015447572455966</v>
       </c>
       <c r="E7">
-        <v>1.003467592049201</v>
+        <v>1.004459781243862</v>
       </c>
       <c r="F7">
-        <v>1.025592501442211</v>
+        <v>1.026066786721983</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.040941689969554</v>
+        <v>1.041334936500351</v>
       </c>
       <c r="J7">
-        <v>1.016706784960522</v>
+        <v>1.017804195718637</v>
       </c>
       <c r="K7">
-        <v>1.024481436879207</v>
+        <v>1.025360126364296</v>
       </c>
       <c r="L7">
-        <v>1.013521358216149</v>
+        <v>1.014501693520453</v>
       </c>
       <c r="M7">
-        <v>1.035388655052551</v>
+        <v>1.035857567935351</v>
       </c>
       <c r="N7">
-        <v>1.009247670651016</v>
+        <v>1.011783453593842</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.036580126346188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036951241389067</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.018678750133819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9909532949711152</v>
+        <v>0.992562809129761</v>
       </c>
       <c r="D8">
-        <v>1.010215051446554</v>
+        <v>1.011628016299205</v>
       </c>
       <c r="E8">
-        <v>0.9984098854080981</v>
+        <v>0.9998244487751932</v>
       </c>
       <c r="F8">
-        <v>1.021467499072408</v>
+        <v>1.022156093523409</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.039630765506418</v>
+        <v>1.040246426566882</v>
       </c>
       <c r="J8">
-        <v>1.012827217678879</v>
+        <v>1.014388970315787</v>
       </c>
       <c r="K8">
-        <v>1.021258408618542</v>
+        <v>1.022652749109882</v>
       </c>
       <c r="L8">
-        <v>1.009611438975118</v>
+        <v>1.011006798538608</v>
       </c>
       <c r="M8">
-        <v>1.032364323867493</v>
+        <v>1.033044082224398</v>
       </c>
       <c r="N8">
-        <v>1.007897911000051</v>
+        <v>1.010893961363288</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.034186553835103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034724541559753</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.018084669849837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9793243364605436</v>
+        <v>0.9818184048884826</v>
       </c>
       <c r="D9">
-        <v>1.002198687868746</v>
+        <v>1.004570211408598</v>
       </c>
       <c r="E9">
-        <v>0.9891029251742164</v>
+        <v>0.9912859663166229</v>
       </c>
       <c r="F9">
-        <v>1.013913962665204</v>
+        <v>1.014994772886062</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.037118884674288</v>
+        <v>1.03813931382705</v>
       </c>
       <c r="J9">
-        <v>1.005628942881385</v>
+        <v>1.008029952992515</v>
       </c>
       <c r="K9">
-        <v>1.015256193334598</v>
+        <v>1.01758957275914</v>
       </c>
       <c r="L9">
-        <v>1.002375309145837</v>
+        <v>1.00452202271289</v>
       </c>
       <c r="M9">
-        <v>1.026785258199324</v>
+        <v>1.027849166275969</v>
       </c>
       <c r="N9">
-        <v>1.005388024646056</v>
+        <v>1.009143806208828</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.029771044384137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.030613068565459</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.016948773783803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9712587866939361</v>
+        <v>0.974440649927161</v>
       </c>
       <c r="D10">
-        <v>0.9966717140896522</v>
+        <v>0.9997618136527214</v>
       </c>
       <c r="E10">
-        <v>0.982697650394858</v>
+        <v>0.9854775998119316</v>
       </c>
       <c r="F10">
-        <v>1.008909198918039</v>
+        <v>1.010294944042348</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.035354546657639</v>
+        <v>1.036679561529572</v>
       </c>
       <c r="J10">
-        <v>1.000661029706424</v>
+        <v>1.003706376072712</v>
       </c>
       <c r="K10">
-        <v>1.011101322920538</v>
+        <v>1.014135369959729</v>
       </c>
       <c r="L10">
-        <v>0.9973864928942926</v>
+        <v>1.00011410637923</v>
       </c>
       <c r="M10">
-        <v>1.023119436862873</v>
+        <v>1.024480775080373</v>
       </c>
       <c r="N10">
-        <v>1.003661697719882</v>
+        <v>1.008072785442812</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.026921912396124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.027999271285345</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.016168964070544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9684871720127808</v>
+        <v>0.97195243142831</v>
       </c>
       <c r="D11">
-        <v>0.9948940931671834</v>
+        <v>0.9982588823212413</v>
       </c>
       <c r="E11">
-        <v>0.9806027239144842</v>
+        <v>0.9836267691876127</v>
       </c>
       <c r="F11">
-        <v>1.008593353453586</v>
+        <v>1.010098616904129</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.034996845354529</v>
+        <v>1.036434245880092</v>
       </c>
       <c r="J11">
-        <v>0.9992323353184468</v>
+        <v>1.002540432198638</v>
       </c>
       <c r="K11">
-        <v>1.009912946090282</v>
+        <v>1.013213708437172</v>
       </c>
       <c r="L11">
-        <v>0.995899955860323</v>
+        <v>0.9988642102918143</v>
       </c>
       <c r="M11">
-        <v>1.023355011112644</v>
+        <v>1.024832568280067</v>
       </c>
       <c r="N11">
-        <v>1.00324469738922</v>
+        <v>1.008042534862958</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.027550126414687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.028718857347994</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.016010030795404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9677400479201795</v>
+        <v>0.9712748271150775</v>
       </c>
       <c r="D12">
-        <v>0.9944725927555911</v>
+        <v>0.9979014191713692</v>
       </c>
       <c r="E12">
-        <v>0.9800887779338027</v>
+        <v>0.9831696827062887</v>
       </c>
       <c r="F12">
-        <v>1.009130118121933</v>
+        <v>1.010660941609433</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.035019145970594</v>
+        <v>1.036478483194846</v>
       </c>
       <c r="J12">
-        <v>0.9989753622419317</v>
+        <v>1.002346681431871</v>
       </c>
       <c r="K12">
-        <v>1.009706460893584</v>
+        <v>1.013068935421273</v>
       </c>
       <c r="L12">
-        <v>0.9956076527556299</v>
+        <v>0.9986265878978113</v>
       </c>
       <c r="M12">
-        <v>1.024084465252426</v>
+        <v>1.025586705822355</v>
       </c>
       <c r="N12">
-        <v>1.00322299482156</v>
+        <v>1.008140281583247</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.028457039034499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029644883629036</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01601411332783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9685027819456723</v>
+        <v>0.9719279997564754</v>
       </c>
       <c r="D13">
-        <v>0.99506593221763</v>
+        <v>0.9983858952035057</v>
       </c>
       <c r="E13">
-        <v>0.9807550450071246</v>
+        <v>0.9837355995381627</v>
       </c>
       <c r="F13">
-        <v>1.010377744270733</v>
+        <v>1.011855362093067</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.035339592494319</v>
+        <v>1.036746337934549</v>
       </c>
       <c r="J13">
-        <v>0.9996049315193638</v>
+        <v>1.002872670597541</v>
       </c>
       <c r="K13">
-        <v>1.010243921692761</v>
+        <v>1.013499946287457</v>
       </c>
       <c r="L13">
-        <v>0.9962151660824294</v>
+        <v>0.9991360706398286</v>
       </c>
       <c r="M13">
-        <v>1.025265412109762</v>
+        <v>1.026715619451673</v>
       </c>
       <c r="N13">
-        <v>1.003504073465155</v>
+        <v>1.008303725799557</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.029669941712016</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03081635020768</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.016140989752605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9697101346111145</v>
+        <v>0.9729801371114246</v>
       </c>
       <c r="D14">
-        <v>0.9959326898445627</v>
+        <v>0.9991007278423375</v>
       </c>
       <c r="E14">
-        <v>0.9817469101483207</v>
+        <v>0.9845886047822038</v>
       </c>
       <c r="F14">
-        <v>1.011556095004397</v>
+        <v>1.012962372156233</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.035693349298421</v>
+        <v>1.037031088253958</v>
       </c>
       <c r="J14">
-        <v>1.000437191948103</v>
+        <v>1.003559166900591</v>
       </c>
       <c r="K14">
-        <v>1.010948789628782</v>
+        <v>1.014056614222433</v>
       </c>
       <c r="L14">
-        <v>0.9970388956421099</v>
+        <v>0.9998244888747947</v>
       </c>
       <c r="M14">
-        <v>1.026280009453419</v>
+        <v>1.027660562282147</v>
       </c>
       <c r="N14">
-        <v>1.003834210194798</v>
+        <v>1.008447025056405</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.030646545112087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031737742039037</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.016283944321711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9703395371042791</v>
+        <v>0.9735337087778434</v>
       </c>
       <c r="D15">
-        <v>0.9963709175651868</v>
+        <v>0.9994649483113798</v>
       </c>
       <c r="E15">
-        <v>0.9822519234491051</v>
+        <v>0.9850266176701067</v>
       </c>
       <c r="F15">
-        <v>1.012030445827307</v>
+        <v>1.013402688439102</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.03584954523581</v>
+        <v>1.037154755536394</v>
       </c>
       <c r="J15">
-        <v>1.000841570076923</v>
+        <v>1.003892485906893</v>
       </c>
       <c r="K15">
-        <v>1.011289288879194</v>
+        <v>1.014324978217118</v>
       </c>
       <c r="L15">
-        <v>0.9974426494524</v>
+        <v>1.000163011410481</v>
       </c>
       <c r="M15">
-        <v>1.02665830907951</v>
+        <v>1.028005650931678</v>
       </c>
       <c r="N15">
-        <v>1.003983425168788</v>
+        <v>1.008501766611874</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.030983327476953</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032048246093061</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01634775020338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9736019807936186</v>
+        <v>0.9764416062219382</v>
       </c>
       <c r="D16">
-        <v>0.9985881557434459</v>
+        <v>1.001333572464652</v>
       </c>
       <c r="E16">
-        <v>0.9848215189397729</v>
+        <v>0.98728706491857</v>
       </c>
       <c r="F16">
-        <v>1.013952564609549</v>
+        <v>1.015169032422415</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.036545292503124</v>
+        <v>1.037702392338686</v>
       </c>
       <c r="J16">
-        <v>1.002823284396519</v>
+        <v>1.005542239579897</v>
       </c>
       <c r="K16">
-        <v>1.012946195494789</v>
+        <v>1.015642183441053</v>
       </c>
       <c r="L16">
-        <v>0.9994328405475665</v>
+        <v>1.001852347413721</v>
       </c>
       <c r="M16">
-        <v>1.028038437752858</v>
+        <v>1.029233812313987</v>
       </c>
       <c r="N16">
-        <v>1.00465880013901</v>
+        <v>1.008734778528794</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.03203520744128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.032980040835036</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.016637296133409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9754764414154142</v>
+        <v>0.9781398182415897</v>
       </c>
       <c r="D17">
-        <v>0.999839283673139</v>
+        <v>1.002407696585353</v>
       </c>
       <c r="E17">
-        <v>0.9862787697001787</v>
+        <v>0.9885925694259459</v>
       </c>
       <c r="F17">
-        <v>1.014808533589823</v>
+        <v>1.015949054411071</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.036893039070617</v>
+        <v>1.037977232085451</v>
       </c>
       <c r="J17">
-        <v>1.003910773667975</v>
+        <v>1.006464767735806</v>
       </c>
       <c r="K17">
-        <v>1.013850131415707</v>
+        <v>1.016373641448873</v>
       </c>
       <c r="L17">
-        <v>1.000531736473476</v>
+        <v>1.002803612924336</v>
       </c>
       <c r="M17">
-        <v>1.028561803707282</v>
+        <v>1.029683100791127</v>
       </c>
       <c r="N17">
-        <v>1.005004833036914</v>
+        <v>1.008870457227301</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.032318984549925</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.033205355771059</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.01678739518451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9763126958695134</v>
+        <v>0.9789196169291969</v>
       </c>
       <c r="D18">
-        <v>1.000355298098982</v>
+        <v>1.002865305153796</v>
       </c>
       <c r="E18">
-        <v>0.986892802259314</v>
+        <v>0.9891606166852331</v>
       </c>
       <c r="F18">
-        <v>1.014715866867167</v>
+        <v>1.015834394207555</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.036957443676329</v>
+        <v>1.038020828506236</v>
       </c>
       <c r="J18">
-        <v>1.004301446348284</v>
+        <v>1.00680337169837</v>
       </c>
       <c r="K18">
-        <v>1.014167901451993</v>
+        <v>1.016634762313095</v>
       </c>
       <c r="L18">
-        <v>1.000941684680082</v>
+        <v>1.003169112395432</v>
       </c>
       <c r="M18">
-        <v>1.028285329601554</v>
+        <v>1.029385290528308</v>
       </c>
       <c r="N18">
-        <v>1.00508901456515</v>
+        <v>1.008886009831503</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.031860873624461</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.032730562548525</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.016821424838373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9761824762916826</v>
+        <v>0.978832480938636</v>
       </c>
       <c r="D19">
-        <v>1.000185667216817</v>
+        <v>1.002738516548861</v>
       </c>
       <c r="E19">
-        <v>0.9867212019038549</v>
+        <v>0.9890305225178966</v>
       </c>
       <c r="F19">
-        <v>1.013701362068468</v>
+        <v>1.01484297787508</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.036754650372775</v>
+        <v>1.037841355402129</v>
       </c>
       <c r="J19">
-        <v>1.004036401881276</v>
+        <v>1.006580270269881</v>
       </c>
       <c r="K19">
-        <v>1.013936670346365</v>
+        <v>1.016445855854085</v>
       </c>
       <c r="L19">
-        <v>1.000707351959816</v>
+        <v>1.002975752095141</v>
       </c>
       <c r="M19">
-        <v>1.027224412033324</v>
+        <v>1.028347131463024</v>
       </c>
       <c r="N19">
-        <v>1.004932745055091</v>
+        <v>1.008768081971261</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.030693399215567</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.031581377439201</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.016745196290626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9733581894156569</v>
+        <v>0.9763244348549636</v>
       </c>
       <c r="D20">
-        <v>0.9981092801549174</v>
+        <v>1.000983680038779</v>
       </c>
       <c r="E20">
-        <v>0.9843623497354287</v>
+        <v>0.9869535327176392</v>
       </c>
       <c r="F20">
-        <v>1.010215651639043</v>
+        <v>1.011505185916823</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.035818965302648</v>
+        <v>1.037051035788325</v>
       </c>
       <c r="J20">
-        <v>1.001956196694784</v>
+        <v>1.004799536210345</v>
       </c>
       <c r="K20">
-        <v>1.012185457265417</v>
+        <v>1.015009254644177</v>
       </c>
       <c r="L20">
-        <v>0.9986858568827521</v>
+        <v>1.00122973451119</v>
       </c>
       <c r="M20">
-        <v>1.024081218484661</v>
+        <v>1.025348702972296</v>
       </c>
       <c r="N20">
-        <v>1.004112330259834</v>
+        <v>1.008272768225532</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.027672374215936</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.02867546972754</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.016365111299044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9671125126243063</v>
+        <v>0.9707997611421818</v>
       </c>
       <c r="D21">
-        <v>0.9938156703881251</v>
+        <v>0.9973968371378976</v>
       </c>
       <c r="E21">
-        <v>0.9793989882762789</v>
+        <v>0.9826255080332018</v>
       </c>
       <c r="F21">
-        <v>1.006088960102056</v>
+        <v>1.00770334976934</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.034384823818707</v>
+        <v>1.035925721290027</v>
       </c>
       <c r="J21">
-        <v>0.9980526352802176</v>
+        <v>1.00157117856219</v>
       </c>
       <c r="K21">
-        <v>1.008915161707279</v>
+        <v>1.012427695637878</v>
       </c>
       <c r="L21">
-        <v>0.9947814541884785</v>
+        <v>0.997943695119746</v>
       </c>
       <c r="M21">
-        <v>1.020955886259114</v>
+        <v>1.022540234885815</v>
       </c>
       <c r="N21">
-        <v>1.002740757673644</v>
+        <v>1.007805636375638</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.025157401856863</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.026411333870762</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.015781182748705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9631347713959253</v>
+        <v>0.967285524657586</v>
       </c>
       <c r="D22">
-        <v>0.9910940790379466</v>
+        <v>0.995128970154556</v>
       </c>
       <c r="E22">
-        <v>0.976253269319004</v>
+        <v>0.9798877971785056</v>
       </c>
       <c r="F22">
-        <v>1.003563461436052</v>
+        <v>1.00538735016753</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.033477050087981</v>
+        <v>1.035216359961597</v>
       </c>
       <c r="J22">
-        <v>0.9955828404596681</v>
+        <v>0.9995319036249087</v>
       </c>
       <c r="K22">
-        <v>1.006844052849557</v>
+        <v>1.010797544659671</v>
       </c>
       <c r="L22">
-        <v>0.9923103024570301</v>
+        <v>0.9958684942508385</v>
       </c>
       <c r="M22">
-        <v>1.019064654453933</v>
+        <v>1.020852832775469</v>
       </c>
       <c r="N22">
-        <v>1.001876897292627</v>
+        <v>1.007509033036394</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.023660584265346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.025075840143369</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01541305525429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9652534142616918</v>
+        <v>0.9691361123053995</v>
       </c>
       <c r="D23">
-        <v>0.9925430802700028</v>
+        <v>0.996319119219079</v>
       </c>
       <c r="E23">
-        <v>0.9779278353647073</v>
+        <v>0.9813253660390389</v>
       </c>
       <c r="F23">
-        <v>1.004907183758533</v>
+        <v>1.006609410518383</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.033961495679939</v>
+        <v>1.035586714204553</v>
       </c>
       <c r="J23">
-        <v>0.9968983843172454</v>
+        <v>1.00059830123444</v>
       </c>
       <c r="K23">
-        <v>1.00794744747865</v>
+        <v>1.011649338097344</v>
       </c>
       <c r="L23">
-        <v>0.993626316976251</v>
+        <v>0.9969544463575482</v>
       </c>
       <c r="M23">
-        <v>1.020071477610984</v>
+        <v>1.021741256317395</v>
       </c>
       <c r="N23">
-        <v>1.002337079630141</v>
+        <v>1.00762089450745</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.024457436023672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.025778982926992</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.015604029814353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9733794337330374</v>
+        <v>0.9763470258946907</v>
       </c>
       <c r="D24">
-        <v>0.9981127474723219</v>
+        <v>1.000988588835474</v>
       </c>
       <c r="E24">
-        <v>0.9843701106303095</v>
+        <v>0.9869628992983969</v>
       </c>
       <c r="F24">
-        <v>1.010091080989074</v>
+        <v>1.011381849320672</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.035798647479491</v>
+        <v>1.037031922319347</v>
       </c>
       <c r="J24">
-        <v>1.001942182072539</v>
+        <v>1.00478699428175</v>
       </c>
       <c r="K24">
-        <v>1.012173086636969</v>
+        <v>1.014998365959404</v>
       </c>
       <c r="L24">
-        <v>0.9986773792695209</v>
+        <v>1.001222895638747</v>
       </c>
       <c r="M24">
-        <v>1.023943273469756</v>
+        <v>1.02521199229384</v>
       </c>
       <c r="N24">
-        <v>1.004100395499763</v>
+        <v>1.008260317689228</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.027521766213811</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.028525889881494</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01635826713742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9824006640368665</v>
+        <v>0.9846418993805893</v>
       </c>
       <c r="D25">
-        <v>1.004316455974469</v>
+        <v>1.006420218350321</v>
       </c>
       <c r="E25">
-        <v>0.9915586351870703</v>
+        <v>0.9935217072097018</v>
       </c>
       <c r="F25">
-        <v>1.015902383292152</v>
+        <v>1.016870904588518</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.037793097333294</v>
+        <v>1.03869989264324</v>
       </c>
       <c r="J25">
-        <v>1.007535187280194</v>
+        <v>1.009697414515136</v>
       </c>
       <c r="K25">
-        <v>1.016848132045805</v>
+        <v>1.018919679592334</v>
       </c>
       <c r="L25">
-        <v>1.004289421304406</v>
+        <v>1.00622142973748</v>
       </c>
       <c r="M25">
-        <v>1.028258750861696</v>
+        <v>1.029212847376748</v>
       </c>
       <c r="N25">
-        <v>1.006053282533879</v>
+        <v>1.009571725478472</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.030937231755468</v>
+        <v>1.031692344962822</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.017248695780818</v>
       </c>
     </row>
   </sheetData>
